--- a/output/fit_clients/fit_round_248.xlsx
+++ b/output/fit_clients/fit_round_248.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2349436736.839904</v>
+        <v>2446398080.394032</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08197689048344008</v>
+        <v>0.08614700253443477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03811818600412523</v>
+        <v>0.04086394923403984</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1174718411.021924</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1629752281.668146</v>
+        <v>2535230912.531083</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1334244505912995</v>
+        <v>0.1398501091309746</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04335351283676458</v>
+        <v>0.03304665579291383</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>814876123.5429541</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5182046450.982187</v>
+        <v>3739367490.454566</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1062234772646868</v>
+        <v>0.1150568074713802</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02407848999518654</v>
+        <v>0.02923800366991738</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>90</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2591023323.402852</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2774927975.630261</v>
+        <v>3735517387.950402</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08760090979423012</v>
+        <v>0.08567576947354008</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05102838400208373</v>
+        <v>0.03526736069053923</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1387464072.523695</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2612080779.179282</v>
+        <v>2065912565.101108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09111220238225677</v>
+        <v>0.1175109233366007</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05066865087503303</v>
+        <v>0.03674667910037565</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1306040352.931144</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2575806120.290104</v>
+        <v>2270208584.491521</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08047884424661064</v>
+        <v>0.08722471973508855</v>
       </c>
       <c r="G7" t="n">
-        <v>0.032573721893709</v>
+        <v>0.04457388109095176</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>78</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1287903065.836369</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3333293834.859381</v>
+        <v>2757530902.782893</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1617190762795161</v>
+        <v>0.13495446480438</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02666913932885634</v>
+        <v>0.02869829378067592</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>79</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1666647009.004748</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1603670669.231485</v>
+        <v>1781399019.066593</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1772324257031383</v>
+        <v>0.1580271116362283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02443781568442649</v>
+        <v>0.03008098324651273</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>801835416.2062933</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3901602322.549422</v>
+        <v>5360168901.865544</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1509382951809541</v>
+        <v>0.1499206569160641</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04953596935571741</v>
+        <v>0.05404742344109166</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>104</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1950801175.522069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4004567465.557937</v>
+        <v>3944575133.767709</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1288512450726398</v>
+        <v>0.1558923452851683</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04688705488618746</v>
+        <v>0.03779592646490646</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>103</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2002283745.771803</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2717296323.529533</v>
+        <v>3046573365.899893</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1819656686713753</v>
+        <v>0.1609078201470808</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04616808899056497</v>
+        <v>0.04118285809610963</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>83</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1358648153.858756</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5149055427.015987</v>
+        <v>3298089254.538723</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06193556681197782</v>
+        <v>0.09607300375857029</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03034107331491727</v>
+        <v>0.02374482692974655</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>83</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2574527710.066618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3126491858.415972</v>
+        <v>2845800905.19769</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1473172024207941</v>
+        <v>0.1386194032331896</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03321206646529493</v>
+        <v>0.02838202845029326</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1563245954.484279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1119590337.582467</v>
+        <v>1243190675.98067</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07294504827623911</v>
+        <v>0.1046517481375099</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03776948031048586</v>
+        <v>0.03593029763487212</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>559795168.0360659</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2837211682.479977</v>
+        <v>2142520966.23032</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1069720007017466</v>
+        <v>0.08725697509924385</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04692304973970894</v>
+        <v>0.04645908150349613</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>45</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1418605841.933183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4623469374.697724</v>
+        <v>4594389888.964084</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1554741981585029</v>
+        <v>0.1577732447689482</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04968144314434968</v>
+        <v>0.05275638369532304</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>72</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2311734691.072834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2649719649.162406</v>
+        <v>2541373753.919034</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1223279660087553</v>
+        <v>0.1393737234268552</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03350697876447466</v>
+        <v>0.03131499263363546</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>81</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1324859880.243745</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>880263494.6026548</v>
+        <v>1114294622.053424</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1763464584296175</v>
+        <v>0.1472758151602062</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02629877702652419</v>
+        <v>0.02712283756738985</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>440131747.4203775</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2288996721.713311</v>
+        <v>2687657253.90184</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1310658326575637</v>
+        <v>0.1162644398107774</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03181777940137149</v>
+        <v>0.02873279747142914</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1144498356.410991</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2359849595.584628</v>
+        <v>2084669946.343701</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07645989657227178</v>
+        <v>0.09165280036760901</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03483797284367888</v>
+        <v>0.04361393391558476</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1179924799.336082</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2454116354.828791</v>
+        <v>3055024264.335854</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1045300477547964</v>
+        <v>0.1413266222434197</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04898689370289252</v>
+        <v>0.04324595833315294</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>69</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1227058271.626721</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1302394011.620637</v>
+        <v>1357586510.199837</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1324766298131076</v>
+        <v>0.1183768506114672</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04382761984538734</v>
+        <v>0.03946433595814521</v>
       </c>
       <c r="H23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>651197025.0298486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3528257860.234544</v>
+        <v>3761570316.323311</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1474160018982007</v>
+        <v>0.1293890449613629</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02686881803433483</v>
+        <v>0.02377654742020742</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>72</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1764128929.805912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>916015895.383634</v>
+        <v>1401522326.153787</v>
       </c>
       <c r="F25" t="n">
-        <v>0.114138128516864</v>
+        <v>0.09620897235796738</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02085337685487096</v>
+        <v>0.02816433059508619</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>458008031.0061411</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1441952272.403003</v>
+        <v>1201320402.336748</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09466115029737528</v>
+        <v>0.0840866414913093</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03489636254512775</v>
+        <v>0.02544437872280836</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>720976216.4528061</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3508879021.158125</v>
+        <v>3901853604.330693</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1517588339752168</v>
+        <v>0.1575292317887102</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02407438346138116</v>
+        <v>0.02398090925911731</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1754439545.095944</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2501577906.128438</v>
+        <v>2900712328.513536</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1417705408001172</v>
+        <v>0.1251613815398545</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04136607164274669</v>
+        <v>0.04514357752859377</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>82</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1250788921.000647</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5266924230.420565</v>
+        <v>4052249780.835196</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1228342153875954</v>
+        <v>0.1429663965046576</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04217864571196649</v>
+        <v>0.03941017378588966</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>110</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2633462044.237447</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1626014090.154588</v>
+        <v>1462415009.368846</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1330898038747262</v>
+        <v>0.1029905937050262</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03336380689737221</v>
+        <v>0.03033953809466084</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>813007039.9352649</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1159127630.407233</v>
+        <v>1147726540.227707</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07466893250634976</v>
+        <v>0.1096150547600188</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04910474103636063</v>
+        <v>0.04040423786871646</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>579563776.2796872</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1431580417.673829</v>
+        <v>1168608075.160531</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08190807866845047</v>
+        <v>0.09646866261751956</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02934197132697872</v>
+        <v>0.03201294714165173</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>715790262.9866593</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3112242046.449358</v>
+        <v>2456440844.567919</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1984585665291302</v>
+        <v>0.147117585453464</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05710233942804838</v>
+        <v>0.0472183256097365</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>76</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1556121009.278618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1061556978.334462</v>
+        <v>1543960876.878218</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07762123461896389</v>
+        <v>0.1181314826636314</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02326554275717689</v>
+        <v>0.02204709277202877</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>530778516.9615688</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1325989390.205849</v>
+        <v>967007786.0465063</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1008524306748379</v>
+        <v>0.1141381568956716</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04354725759230251</v>
+        <v>0.04144962537404199</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>662994642.2051268</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2160632701.274477</v>
+        <v>2629690928.152461</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1657108809565402</v>
+        <v>0.1333297391085672</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01805652153825038</v>
+        <v>0.02313925964279054</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>62</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1080316399.772799</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2809618204.249346</v>
+        <v>1980635779.085443</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09911042846167541</v>
+        <v>0.08243769461910772</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03500674776737017</v>
+        <v>0.0369614477995199</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>63</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1404809240.750317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1931140557.978709</v>
+        <v>1561259376.358379</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1196473360343893</v>
+        <v>0.09510099995486904</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03546964115569012</v>
+        <v>0.03734135438642799</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>965570267.3341936</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1581949368.784386</v>
+        <v>1726546071.691885</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1288309302304272</v>
+        <v>0.1440100323714056</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03249496969971982</v>
+        <v>0.02735581475551218</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>790974742.4092087</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1144678655.692196</v>
+        <v>1560091109.010306</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09850652455490401</v>
+        <v>0.1528890196804583</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05690130108751804</v>
+        <v>0.05947995411286473</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>572339382.9852904</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2609123512.183108</v>
+        <v>2740948734.127177</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1517612098620644</v>
+        <v>0.1639519510292666</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03218712183427148</v>
+        <v>0.04102621453821655</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>59</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1304561770.677917</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4044788676.566511</v>
+        <v>3701647125.765008</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0901763029529786</v>
+        <v>0.08933557491661705</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04474090725242681</v>
+        <v>0.04609278220727087</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>82</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2022394370.65294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2882510296.692916</v>
+        <v>2581840706.597152</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1856047740687999</v>
+        <v>0.1714590108442512</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02249268904783681</v>
+        <v>0.02523718703323996</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>87</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1441255158.519832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2166614163.42729</v>
+        <v>1913525945.599971</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08325210844745287</v>
+        <v>0.08581859043701684</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03110812505820945</v>
+        <v>0.02617380586468671</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1083307221.292897</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1782120012.994143</v>
+        <v>2108385298.410294</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1408398008594434</v>
+        <v>0.1481180945389149</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04218385807830645</v>
+        <v>0.03939726574580511</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>891059975.3756951</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4531608979.400845</v>
+        <v>5620346195.192723</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1099641153851854</v>
+        <v>0.1262362471448851</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05805381704302701</v>
+        <v>0.04126629293632309</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>88</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2265804489.653546</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3772599205.352774</v>
+        <v>4977327913.964085</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1754239717161351</v>
+        <v>0.1634078721674609</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03726064223288809</v>
+        <v>0.05199277033256275</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>66</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1886299588.92486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3370805904.912772</v>
+        <v>3267213719.357349</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08660081029390053</v>
+        <v>0.1085103426486701</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02601750765814436</v>
+        <v>0.02377678585295296</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1685403023.368058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1797258627.212674</v>
+        <v>1735398137.59044</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1712691910692885</v>
+        <v>0.1436071307331341</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03457917882753831</v>
+        <v>0.04489797252981524</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>898629299.3976842</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3709243717.272031</v>
+        <v>4089379032.52078</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1560332858406131</v>
+        <v>0.1336892712092982</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0322641770908678</v>
+        <v>0.04920670617751748</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>85</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1854621867.987989</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>949377936.9684544</v>
+        <v>1174727208.724798</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1254607296999572</v>
+        <v>0.1933997623906309</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04460067145175717</v>
+        <v>0.04557932310736534</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>474689060.6454328</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3905779494.505695</v>
+        <v>3936336562.37427</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1001484925299228</v>
+        <v>0.1314388645580074</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04057329110236666</v>
+        <v>0.05884903508134579</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>102</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1952889809.273401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2230,22 +1914,16 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3533972164.522764</v>
+        <v>3597277684.924152</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1716222951437312</v>
+        <v>0.1904632525093915</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02836268532130685</v>
+        <v>0.03033823937649346</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>72</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1766986077.838585</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4902255760.947888</v>
+        <v>4921982052.587541</v>
       </c>
       <c r="F54" t="n">
-        <v>0.122661202235492</v>
+        <v>0.147518066486109</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04935677751409967</v>
+        <v>0.03428223646406579</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>81</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2451128015.398264</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3944199696.752887</v>
+        <v>4688774012.303959</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1846940478436917</v>
+        <v>0.217055927014998</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02039863276103301</v>
+        <v>0.03038371649734917</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1972099820.795754</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1391192832.910905</v>
+        <v>1576550201.369226</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1187727781427017</v>
+        <v>0.1533128204385547</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03833246780085825</v>
+        <v>0.05688405253681519</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>695596474.8450065</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4247424860.21146</v>
+        <v>4329625075.574501</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1749856015957039</v>
+        <v>0.1770726753081038</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02189847862616425</v>
+        <v>0.0205208436470623</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>79</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2123712539.236502</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1740939440.550328</v>
+        <v>1775460947.507734</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1495716248940925</v>
+        <v>0.1918818641186944</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02681669604132204</v>
+        <v>0.03170147974700267</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>870469729.4179208</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5096222722.735653</v>
+        <v>4333607273.657398</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1208209261685821</v>
+        <v>0.09527720104532629</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04573391622356057</v>
+        <v>0.04109904179075236</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2548111284.415643</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3168271951.502484</v>
+        <v>3663700471.313064</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1282466821518943</v>
+        <v>0.1756451791852204</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02999798844988943</v>
+        <v>0.02154564859900149</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>77</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1584136063.743404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2879740140.765502</v>
+        <v>3064454543.011576</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1554874992014746</v>
+        <v>0.1758457071048155</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02304542679335492</v>
+        <v>0.03206374070209264</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>88</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1439870062.176971</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1883022509.045668</v>
+        <v>1954019930.734638</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1253148122041295</v>
+        <v>0.1646155214400764</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04140010197338759</v>
+        <v>0.04806070093275328</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>941511295.0574427</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5266807960.895485</v>
+        <v>3952447326.785184</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08650936934819434</v>
+        <v>0.07882396978937853</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04633403712759945</v>
+        <v>0.03912121233930414</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>71</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2633403986.295981</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4943569779.220707</v>
+        <v>5310699589.303935</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1552177011487824</v>
+        <v>0.1792445053699803</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02810709059536012</v>
+        <v>0.02856645221966711</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>77</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2471784991.82986</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4569850505.791205</v>
+        <v>4943100941.662694</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1706698123600514</v>
+        <v>0.1603057239387438</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03122412536467548</v>
+        <v>0.02754678016091719</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>90</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2284925237.47028</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3510626582.127318</v>
+        <v>5682258882.111588</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1005449573099773</v>
+        <v>0.108952302454138</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04814696175904344</v>
+        <v>0.03557970962401105</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>72</v>
-      </c>
-      <c r="J66" t="n">
-        <v>1755313238.449191</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2521365571.049973</v>
+        <v>2162781587.503728</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07038491144537673</v>
+        <v>0.07516064609741323</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04111731859803897</v>
+        <v>0.04571262048957474</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>82</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1260682844.269002</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5776305825.359166</v>
+        <v>3992616687.342314</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1045389199798229</v>
+        <v>0.1216734064890573</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04955990576843269</v>
+        <v>0.0339609061964367</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2888153016.098901</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2412244112.308923</v>
+        <v>2435309774.360155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1460258842778839</v>
+        <v>0.1343254699447888</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04920872713097231</v>
+        <v>0.05535875255180649</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1206122114.379836</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2506852243.042595</v>
+        <v>3033602039.785254</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1014302975150864</v>
+        <v>0.1015022903392375</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03608676128838021</v>
+        <v>0.04927032849444488</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>71</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1253426066.367358</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4228178078.845501</v>
+        <v>4945492815.473963</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1354441523433884</v>
+        <v>0.1851127602642405</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03367627435857495</v>
+        <v>0.0336356862188022</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>90</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2114089087.500143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1954841289.942179</v>
+        <v>1658022790.443325</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06779994891959881</v>
+        <v>0.08126987582267815</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03748519619934476</v>
+        <v>0.04558274771344115</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>977420598.6104797</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3343265710.643368</v>
+        <v>3486871488.165296</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09042299583345344</v>
+        <v>0.0752940282168256</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04488795209612689</v>
+        <v>0.04677230763643114</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>95</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1671632819.860213</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3069192625.237036</v>
+        <v>3276676527.564526</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1418129688287842</v>
+        <v>0.173228757171448</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02266343337978992</v>
+        <v>0.0255681416721131</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>85</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1534596372.023201</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1740098890.605629</v>
+        <v>1630855047.728725</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1532769086271711</v>
+        <v>0.1648233176753398</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03202501369209835</v>
+        <v>0.02567727645244547</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>870049433.9060534</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4139412468.939013</v>
+        <v>4285118407.35329</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08423770286424193</v>
+        <v>0.09310806431633192</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02566078291657901</v>
+        <v>0.0247542877531036</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2069706225.050108</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2109930718.853331</v>
+        <v>1845910111.270531</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1540891359498223</v>
+        <v>0.1204916965707377</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0199197444905213</v>
+        <v>0.02152769465544148</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1054965437.208601</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4357228045.122509</v>
+        <v>4103007963.098701</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09479097124167922</v>
+        <v>0.1133577889677001</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05117087864716661</v>
+        <v>0.04208890932288441</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>86</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2178613962.735593</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1711233483.589338</v>
+        <v>1404828571.011114</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1650856059061972</v>
+        <v>0.1636294669382354</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03767072389859542</v>
+        <v>0.02900924344766899</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>855616812.9602777</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3883952403.420003</v>
+        <v>5470142066.659497</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1022180822080916</v>
+        <v>0.08798598319379902</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03743946069001988</v>
+        <v>0.02354701104692856</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>52</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1941976195.394492</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5144961736.066031</v>
+        <v>4084292157.535094</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1083873007942936</v>
+        <v>0.08991671689960162</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03265494399814887</v>
+        <v>0.02650356538575451</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2572480873.722323</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4229751870.6916</v>
+        <v>4480870802.145836</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1724134935584508</v>
+        <v>0.1785135504649813</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01814563460007872</v>
+        <v>0.02529264504562959</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2114875962.246929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1731032513.332369</v>
+        <v>2247594812.636103</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1296725732172094</v>
+        <v>0.1277047256994284</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03303765102696483</v>
+        <v>0.032523813908757</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>865516208.5247239</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2550393494.360524</v>
+        <v>2173763392.363316</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07622924281809648</v>
+        <v>0.1044161610089857</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04083305755754023</v>
+        <v>0.0491430587296156</v>
       </c>
       <c r="H84" t="b">
-        <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1275196671.617617</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3289715086.514583</v>
+        <v>2351289292.085992</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1629153380444797</v>
+        <v>0.1844420008034141</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04935350232119447</v>
+        <v>0.04208353888954225</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>94</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1644857635.369697</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2633531916.353044</v>
+        <v>1797063941.025003</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1480158830894286</v>
+        <v>0.1257370537679345</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02576421303520908</v>
+        <v>0.02397798317431725</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>32</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1316766073.873141</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1004483620.970473</v>
+        <v>1199792573.734228</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1584760853407534</v>
+        <v>0.12976511883114</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02688676003530634</v>
+        <v>0.03513729894006328</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>502241815.9538494</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2506949233.987652</v>
+        <v>2394153109.587878</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1737154530427723</v>
+        <v>0.1556639245605379</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03229999258020796</v>
+        <v>0.03937237385405342</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>98</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1253474598.70032</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2689801172.286324</v>
+        <v>2415693514.873976</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1106729250987342</v>
+        <v>0.1468205560482575</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03922867829061226</v>
+        <v>0.03542107195479492</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>84</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1344900646.99517</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1650713437.771591</v>
+        <v>1856903411.138462</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08551872803630943</v>
+        <v>0.1022012627418724</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05355010694740447</v>
+        <v>0.04053632314828384</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>825356725.1641903</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1960684926.255378</v>
+        <v>1979312990.7068</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1463209367604136</v>
+        <v>0.1207411713463303</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05238541822646191</v>
+        <v>0.04495407018528359</v>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>980342440.615487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3002901655.706389</v>
+        <v>2911753922.719681</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1092783029456003</v>
+        <v>0.08078102337339448</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0318774099382514</v>
+        <v>0.03771180532861714</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>63</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1501450849.778543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4200438624.896446</v>
+        <v>3985448975.919243</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1411992427174285</v>
+        <v>0.1099549708495787</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05001189776194263</v>
+        <v>0.03768285105710246</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>77</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2100219300.079562</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2485486218.443772</v>
+        <v>1937513354.317711</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1487793070955224</v>
+        <v>0.130637428548384</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02848108122910823</v>
+        <v>0.02638018517382858</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1242743170.734015</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2993231097.302764</v>
+        <v>2941799230.215457</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1000175843315871</v>
+        <v>0.1187358251643751</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04432430059901234</v>
+        <v>0.04352548943915275</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>60</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1496615548.888579</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2206430902.28507</v>
+        <v>1974083123.831538</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1044806729058426</v>
+        <v>0.0899805643315509</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04334161317619092</v>
+        <v>0.0322178937091927</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1103215416.07645</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3412851662.542027</v>
+        <v>3514176048.908406</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1533460798425958</v>
+        <v>0.1449932169184271</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02837855040877295</v>
+        <v>0.0226334328486526</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>81</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1706425840.420896</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3596489947.62063</v>
+        <v>3383933382.198238</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1167758681084685</v>
+        <v>0.08521450287252831</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0265458527062755</v>
+        <v>0.0303949724393084</v>
       </c>
       <c r="H98" t="b">
         <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>66</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1798244998.98162</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2771466286.286215</v>
+        <v>3432785734.970839</v>
       </c>
       <c r="F99" t="n">
-        <v>0.10714243139178</v>
+        <v>0.09119973000034566</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02456657958043494</v>
+        <v>0.02276287306022198</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>78</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1385733112.514955</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3768345400.12227</v>
+        <v>3475156472.626277</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1350414250557955</v>
+        <v>0.1103830417135567</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02438648463506357</v>
+        <v>0.02086362469979443</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>79</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1884172752.232593</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3397943637.243371</v>
+        <v>2333376915.881236</v>
       </c>
       <c r="F101" t="n">
-        <v>0.153224542572405</v>
+        <v>0.1829969300733997</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05642184067757693</v>
+        <v>0.04516192579842275</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>100</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1698971960.234877</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_248.xlsx
+++ b/output/fit_clients/fit_round_248.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2446398080.394032</v>
+        <v>2009125108.057884</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08614700253443477</v>
+        <v>0.08848261995159003</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04086394923403984</v>
+        <v>0.03279566637606562</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2535230912.531083</v>
+        <v>1664212961.194552</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1398501091309746</v>
+        <v>0.1237608203813397</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03304665579291383</v>
+        <v>0.03877290695651893</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3739367490.454566</v>
+        <v>4398266699.123134</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1150568074713802</v>
+        <v>0.1483130788990656</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02923800366991738</v>
+        <v>0.02348406883919019</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3735517387.950402</v>
+        <v>3331113086.313799</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08567576947354008</v>
+        <v>0.08727638901585941</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03526736069053923</v>
+        <v>0.03930164072360742</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2065912565.101108</v>
+        <v>2435067812.850647</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1175109233366007</v>
+        <v>0.1105830975679983</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03674667910037565</v>
+        <v>0.04231094953185491</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2270208584.491521</v>
+        <v>2030434299.511391</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08722471973508855</v>
+        <v>0.07779975730611211</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04457388109095176</v>
+        <v>0.04916378414034042</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2757530902.782893</v>
+        <v>2403456806.232616</v>
       </c>
       <c r="F8" t="n">
-        <v>0.13495446480438</v>
+        <v>0.1970830646451832</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02869829378067592</v>
+        <v>0.02736414061285815</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1781399019.066593</v>
+        <v>2077375406.836605</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1580271116362283</v>
+        <v>0.1204737443171887</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03008098324651273</v>
+        <v>0.03325060645780825</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5360168901.865544</v>
+        <v>3835406711.833007</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1499206569160641</v>
+        <v>0.1554198401319526</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05404742344109166</v>
+        <v>0.0545034035123659</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3944575133.767709</v>
+        <v>3161528830.744567</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1558923452851683</v>
+        <v>0.1593581564441426</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03779592646490646</v>
+        <v>0.04560617138034676</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3046573365.899893</v>
+        <v>3203604581.581565</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1609078201470808</v>
+        <v>0.1632381551451069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04118285809610963</v>
+        <v>0.04497584805329003</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,13 +794,13 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3298089254.538723</v>
+        <v>4143120565.216101</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09607300375857029</v>
+        <v>0.0806754266954639</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02374482692974655</v>
+        <v>0.02502739021858372</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2845800905.19769</v>
+        <v>3419798568.856554</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1386194032331896</v>
+        <v>0.1436842502666264</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02838202845029326</v>
+        <v>0.03988974654563569</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1243190675.98067</v>
+        <v>1804068613.598214</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1046517481375099</v>
+        <v>0.09426881547386153</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03593029763487212</v>
+        <v>0.04242790564658739</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2142520966.23032</v>
+        <v>1961911627.400732</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08725697509924385</v>
+        <v>0.07205483249746612</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04645908150349613</v>
+        <v>0.04540321247949214</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4594389888.964084</v>
+        <v>3327896955.211309</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1577732447689482</v>
+        <v>0.1640315508524291</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05275638369532304</v>
+        <v>0.04474296803471429</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2541373753.919034</v>
+        <v>3420049149.745387</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1393737234268552</v>
+        <v>0.1198678924152532</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03131499263363546</v>
+        <v>0.02435807973100022</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1114294622.053424</v>
+        <v>1183814334.899581</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1472758151602062</v>
+        <v>0.1180761906457589</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02712283756738985</v>
+        <v>0.02687256889069023</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2687657253.90184</v>
+        <v>2539406863.309633</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1162644398107774</v>
+        <v>0.1487316788349875</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02873279747142914</v>
+        <v>0.02121317537834569</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2084669946.343701</v>
+        <v>2416797254.682682</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09165280036760901</v>
+        <v>0.09537292470570995</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04361393391558476</v>
+        <v>0.04214430648593018</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3055024264.335854</v>
+        <v>3523554918.751053</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1413266222434197</v>
+        <v>0.1317335129912535</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04324595833315294</v>
+        <v>0.04603698616564619</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,22 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1357586510.199837</v>
+        <v>1211416195.775892</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1183768506114672</v>
+        <v>0.1240300859330261</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03946433595814521</v>
+        <v>0.03986402014930684</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3761570316.323311</v>
+        <v>3539679105.650798</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1293890449613629</v>
+        <v>0.1141566770989323</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02377654742020742</v>
+        <v>0.02661329244009953</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1401522326.153787</v>
+        <v>1401050000.017889</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09620897235796738</v>
+        <v>0.09429574429229833</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02816433059508619</v>
+        <v>0.02435501024582276</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1201320402.336748</v>
+        <v>932839608.7849351</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0840866414913093</v>
+        <v>0.1029514308917499</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02544437872280836</v>
+        <v>0.03342959468332084</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3901853604.330693</v>
+        <v>3112774665.816579</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1575292317887102</v>
+        <v>0.1029731790597429</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02398090925911731</v>
+        <v>0.01695331957537651</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2900712328.513536</v>
+        <v>3328425966.87186</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1251613815398545</v>
+        <v>0.09346801886309132</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04514357752859377</v>
+        <v>0.03203933060263966</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4052249780.835196</v>
+        <v>4490744007.940613</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1429663965046576</v>
+        <v>0.1428388719088606</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03941017378588966</v>
+        <v>0.04236592200671076</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1462415009.368846</v>
+        <v>1902636924.1904</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1029905937050262</v>
+        <v>0.1264284986096431</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03033953809466084</v>
+        <v>0.03556313883115339</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1147726540.227707</v>
+        <v>1445352534.803162</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1096150547600188</v>
+        <v>0.09546412609322064</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04040423786871646</v>
+        <v>0.04816937359282449</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1168608075.160531</v>
+        <v>1448828475.117932</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09646866261751956</v>
+        <v>0.09036780577547436</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03201294714165173</v>
+        <v>0.02673902809938397</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2456440844.567919</v>
+        <v>2947294709.175441</v>
       </c>
       <c r="F33" t="n">
-        <v>0.147117585453464</v>
+        <v>0.1848804863831245</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0472183256097365</v>
+        <v>0.0521341401594842</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1543960876.878218</v>
+        <v>1064587982.415152</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1181314826636314</v>
+        <v>0.09137546548938739</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02204709277202877</v>
+        <v>0.02126763336653771</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>967007786.0465063</v>
+        <v>1045705585.618837</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1141381568956716</v>
+        <v>0.09032915176510276</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04144962537404199</v>
+        <v>0.0404517751180589</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2629690928.152461</v>
+        <v>3252383465.134922</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1333297391085672</v>
+        <v>0.1303138765921091</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02313925964279054</v>
+        <v>0.02465919862727725</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1980635779.085443</v>
+        <v>2395772616.604269</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08243769461910772</v>
+        <v>0.1094117681429841</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0369614477995199</v>
+        <v>0.03005827727971766</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1561259376.358379</v>
+        <v>1353583824.038694</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09510099995486904</v>
+        <v>0.0845841744182536</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03734135438642799</v>
+        <v>0.02915656852675432</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1726546071.691885</v>
+        <v>2105937801.053177</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1440100323714056</v>
+        <v>0.1559989815136159</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02735581475551218</v>
+        <v>0.02530897954588219</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1560091109.010306</v>
+        <v>1663472396.589803</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1528890196804583</v>
+        <v>0.1240143928496341</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05947995411286473</v>
+        <v>0.05352731782041337</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2740948734.127177</v>
+        <v>2195971561.801048</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1639519510292666</v>
+        <v>0.1512663554769491</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04102621453821655</v>
+        <v>0.04465664439506077</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1606,13 +1606,13 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3701647125.765008</v>
+        <v>4189193300.068729</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08933557491661705</v>
+        <v>0.1106298005480965</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04609278220727087</v>
+        <v>0.03625832730573279</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2581840706.597152</v>
+        <v>2200857257.965044</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1714590108442512</v>
+        <v>0.2014461236646115</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02523718703323996</v>
+        <v>0.02196590057602603</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1913525945.599971</v>
+        <v>1918994998.391553</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08581859043701684</v>
+        <v>0.0941270168149238</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02617380586468671</v>
+        <v>0.02764609504933167</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,22 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2108385298.410294</v>
+        <v>2422897911.985093</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1481180945389149</v>
+        <v>0.1640721418664136</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03939726574580511</v>
+        <v>0.05051588284692212</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5620346195.192723</v>
+        <v>5499597791.838482</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1262362471448851</v>
+        <v>0.1103360796535121</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04126629293632309</v>
+        <v>0.0447957117663884</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4977327913.964085</v>
+        <v>4191238148.936764</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1634078721674609</v>
+        <v>0.1634486269916219</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05199277033256275</v>
+        <v>0.03711942759214951</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3267213719.357349</v>
+        <v>4617779247.683015</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1085103426486701</v>
+        <v>0.07229903023446728</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02377678585295296</v>
+        <v>0.03688625472609952</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1735398137.59044</v>
+        <v>1712703736.504543</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1436071307331341</v>
+        <v>0.1629277876935106</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04489797252981524</v>
+        <v>0.02958915172409799</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4089379032.52078</v>
+        <v>3459166759.147833</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1336892712092982</v>
+        <v>0.1449286944985115</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04920670617751748</v>
+        <v>0.04127063913091185</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1174727208.724798</v>
+        <v>1531113929.554852</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1933997623906309</v>
+        <v>0.152342558055983</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04557932310736534</v>
+        <v>0.04065402583439119</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3936336562.37427</v>
+        <v>4207302488.364112</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1314388645580074</v>
+        <v>0.1341901035684235</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05884903508134579</v>
+        <v>0.04091005683497327</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3597277684.924152</v>
+        <v>3553686249.225291</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1904632525093915</v>
+        <v>0.1888369555030873</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03033823937649346</v>
+        <v>0.02379503847861963</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,16 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4921982052.587541</v>
+        <v>4428284721.154042</v>
       </c>
       <c r="F54" t="n">
-        <v>0.147518066486109</v>
+        <v>0.1332044246712686</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03428223646406579</v>
+        <v>0.04619017226935543</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4688774012.303959</v>
+        <v>4268520173.974617</v>
       </c>
       <c r="F55" t="n">
-        <v>0.217055927014998</v>
+        <v>0.2231340848473834</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03038371649734917</v>
+        <v>0.02448546726396727</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1576550201.369226</v>
+        <v>1430057786.315623</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1533128204385547</v>
+        <v>0.1245869917941701</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05688405253681519</v>
+        <v>0.03934753528498386</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4329625075.574501</v>
+        <v>3453370649.966598</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1770726753081038</v>
+        <v>0.1728345444122589</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0205208436470623</v>
+        <v>0.0213726294672772</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1775460947.507734</v>
+        <v>1675440067.353711</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1918818641186944</v>
+        <v>0.2032254131844475</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03170147974700267</v>
+        <v>0.03181946695204162</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4333607273.657398</v>
+        <v>4679328303.46014</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09527720104532629</v>
+        <v>0.0947685914746344</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04109904179075236</v>
+        <v>0.04781310932340323</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3663700471.313064</v>
+        <v>2862697173.308832</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1756451791852204</v>
+        <v>0.1553774047905457</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02154564859900149</v>
+        <v>0.03081437296245076</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3064454543.011576</v>
+        <v>3182365491.672986</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1758457071048155</v>
+        <v>0.1288650934222943</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03206374070209264</v>
+        <v>0.0277541326346348</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1954019930.734638</v>
+        <v>1689637022.485291</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1646155214400764</v>
+        <v>0.1418643423059564</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04806070093275328</v>
+        <v>0.03459277719645509</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3952447326.785184</v>
+        <v>3636625900.423759</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07882396978937853</v>
+        <v>0.1024070522491827</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03912121233930414</v>
+        <v>0.04492760586656517</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5310699589.303935</v>
+        <v>3367802261.895823</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1792445053699803</v>
+        <v>0.1343338635094249</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02856645221966711</v>
+        <v>0.03480296788340193</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4943100941.662694</v>
+        <v>3942210082.5991</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1603057239387438</v>
+        <v>0.1319899730793132</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02754678016091719</v>
+        <v>0.03095115503725717</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5682258882.111588</v>
+        <v>5249220503.989058</v>
       </c>
       <c r="F66" t="n">
-        <v>0.108952302454138</v>
+        <v>0.1424257428586949</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03557970962401105</v>
+        <v>0.04024242665046985</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2162781587.503728</v>
+        <v>3445994834.391046</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07516064609741323</v>
+        <v>0.07022577898216149</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04571262048957474</v>
+        <v>0.03319559657329035</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3992616687.342314</v>
+        <v>5736915482.737123</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1216734064890573</v>
+        <v>0.1219104855552199</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0339609061964367</v>
+        <v>0.04633591373288207</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2435309774.360155</v>
+        <v>2491522054.047435</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1343254699447888</v>
+        <v>0.164437554859197</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05535875255180649</v>
+        <v>0.0397211948151934</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3033602039.785254</v>
+        <v>2964037272.748402</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1015022903392375</v>
+        <v>0.09881560351716678</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04927032849444488</v>
+        <v>0.03747406261356831</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4945492815.473963</v>
+        <v>3491707439.146513</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1851127602642405</v>
+        <v>0.125224976285247</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0336356862188022</v>
+        <v>0.02493273081909211</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1658022790.443325</v>
+        <v>2096336345.35831</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08126987582267815</v>
+        <v>0.1017016578184655</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04558274771344115</v>
+        <v>0.0380972385937468</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3486871488.165296</v>
+        <v>2311869642.438219</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0752940282168256</v>
+        <v>0.08517744148405466</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04677230763643114</v>
+        <v>0.04235627170985626</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3276676527.564526</v>
+        <v>2745505093.577768</v>
       </c>
       <c r="F74" t="n">
-        <v>0.173228757171448</v>
+        <v>0.1318034987515993</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0255681416721131</v>
+        <v>0.03467460108974072</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,16 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1630855047.728725</v>
+        <v>2415753745.973456</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1648233176753398</v>
+        <v>0.106270991966284</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02567727645244547</v>
+        <v>0.03150704205864974</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4285118407.35329</v>
+        <v>3363013755.773335</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09310806431633192</v>
+        <v>0.09957732368804995</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0247542877531036</v>
+        <v>0.03062617060737752</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1845910111.270531</v>
+        <v>2202291405.413283</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1204916965707377</v>
+        <v>0.1379879678726144</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02152769465544148</v>
+        <v>0.02033713517769855</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4103007963.098701</v>
+        <v>4747053197.604985</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1133577889677001</v>
+        <v>0.09854193422073904</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04208890932288441</v>
+        <v>0.05113793663284953</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1404828571.011114</v>
+        <v>1413220596.673082</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1636294669382354</v>
+        <v>0.1216668951399661</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02900924344766899</v>
+        <v>0.03330681738868401</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5470142066.659497</v>
+        <v>4054916485.59678</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08798598319379902</v>
+        <v>0.1072743169489679</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02354701104692856</v>
+        <v>0.03518512260300622</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4084292157.535094</v>
+        <v>4058848803.611372</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08991671689960162</v>
+        <v>0.1051749289789619</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02650356538575451</v>
+        <v>0.0293248848735775</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4480870802.145836</v>
+        <v>3635086527.14198</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1785135504649813</v>
+        <v>0.1700164813357153</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02529264504562959</v>
+        <v>0.0293360588722379</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2247594812.636103</v>
+        <v>2188678921.004553</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1277047256994284</v>
+        <v>0.1206752829439008</v>
       </c>
       <c r="G83" t="n">
-        <v>0.032523813908757</v>
+        <v>0.03483855106497848</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2173763392.363316</v>
+        <v>2152439035.408167</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1044161610089857</v>
+        <v>0.08660157562305409</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0491430587296156</v>
+        <v>0.04357442079705962</v>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2351289292.085992</v>
+        <v>2539186409.289895</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1844420008034141</v>
+        <v>0.1681933014932161</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04208353888954225</v>
+        <v>0.05429725384985543</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1797063941.025003</v>
+        <v>2297654334.857959</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1257370537679345</v>
+        <v>0.1075428211962043</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02397798317431725</v>
+        <v>0.0222939586772326</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1199792573.734228</v>
+        <v>1000928462.164624</v>
       </c>
       <c r="F87" t="n">
-        <v>0.12976511883114</v>
+        <v>0.1842223485028615</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03513729894006328</v>
+        <v>0.04228329768833167</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2394153109.587878</v>
+        <v>2773579482.660063</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1556639245605379</v>
+        <v>0.1692363553417941</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03937237385405342</v>
+        <v>0.03994613270628252</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2415693514.873976</v>
+        <v>2632317060.921374</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1468205560482575</v>
+        <v>0.1374752811630976</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03542107195479492</v>
+        <v>0.03752821695385909</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1856903411.138462</v>
+        <v>1795290693.940496</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1022012627418724</v>
+        <v>0.1322422553626932</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04053632314828384</v>
+        <v>0.0548755083225299</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,22 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1979312990.7068</v>
+        <v>1740013891.475505</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1207411713463303</v>
+        <v>0.1916987761091457</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04495407018528359</v>
+        <v>0.051926859631422</v>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2911753922.719681</v>
+        <v>2688964035.634931</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08078102337339448</v>
+        <v>0.07845351074622418</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03771180532861714</v>
+        <v>0.04255966609947971</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3985448975.919243</v>
+        <v>3618359675.943569</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1099549708495787</v>
+        <v>0.09624463800367201</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03768285105710246</v>
+        <v>0.0505464750850179</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1937513354.317711</v>
+        <v>1654571842.508503</v>
       </c>
       <c r="F94" t="n">
-        <v>0.130637428548384</v>
+        <v>0.1054036683229208</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02638018517382858</v>
+        <v>0.03044223061220709</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2941799230.215457</v>
+        <v>2413483388.12321</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1187358251643751</v>
+        <v>0.118230426448695</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04352548943915275</v>
+        <v>0.04798978706965262</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1974083123.831538</v>
+        <v>1499548549.545571</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0899805643315509</v>
+        <v>0.09670748853099355</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0322178937091927</v>
+        <v>0.04531642622854806</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3514176048.908406</v>
+        <v>3989346490.828907</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1449932169184271</v>
+        <v>0.1079916481455418</v>
       </c>
       <c r="G97" t="n">
-        <v>0.0226334328486526</v>
+        <v>0.02629201534207684</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3383933382.198238</v>
+        <v>3827143145.971936</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08521450287252831</v>
+        <v>0.09746978041631485</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0303949724393084</v>
+        <v>0.02298644168159077</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3432785734.970839</v>
+        <v>3360222013.249494</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09119973000034566</v>
+        <v>0.1173653210197177</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02276287306022198</v>
+        <v>0.02331631293663684</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3475156472.626277</v>
+        <v>3038787983.208495</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1103830417135567</v>
+        <v>0.1602369785548292</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02086362469979443</v>
+        <v>0.0273947423541121</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2333376915.881236</v>
+        <v>2465933262.979938</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1829969300733997</v>
+        <v>0.1387914618062474</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04516192579842275</v>
+        <v>0.04798884085540091</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_248.xlsx
+++ b/output/fit_clients/fit_round_248.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2009125108.057884</v>
+        <v>1700011999.315701</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08848261995159003</v>
+        <v>0.1014470450343718</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03279566637606562</v>
+        <v>0.03876349992322506</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1664212961.194552</v>
+        <v>2399561988.205137</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1237608203813397</v>
+        <v>0.178845200922957</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03877290695651893</v>
+        <v>0.03637276922333434</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4398266699.123134</v>
+        <v>4216660220.651905</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1483130788990656</v>
+        <v>0.1201241858019071</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02348406883919019</v>
+        <v>0.0370161026487893</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>134</v>
+      </c>
+      <c r="J4" t="n">
+        <v>247</v>
+      </c>
+      <c r="K4" t="n">
+        <v>100.0045531372658</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3331113086.313799</v>
+        <v>3813382102.876382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08727638901585941</v>
+        <v>0.0963487674939643</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03930164072360742</v>
+        <v>0.04160969414654457</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>102</v>
+      </c>
+      <c r="J5" t="n">
+        <v>247</v>
+      </c>
+      <c r="K5" t="n">
+        <v>96.92671948438097</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +639,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2435067812.850647</v>
+        <v>2130410979.326854</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1105830975679983</v>
+        <v>0.1426541535640967</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04231094953185491</v>
+        <v>0.03952258187279864</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2030434299.511391</v>
+        <v>2789351844.270206</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07779975730611211</v>
+        <v>0.06274894783927407</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04916378414034042</v>
+        <v>0.03151736139176838</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2403456806.232616</v>
+        <v>2734813049.866163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1970830646451832</v>
+        <v>0.1383508418614994</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02736414061285815</v>
+        <v>0.02618339638740727</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>68</v>
+      </c>
+      <c r="J8" t="n">
+        <v>244</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2077375406.836605</v>
+        <v>2247742807.374145</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1204737443171887</v>
+        <v>0.1901252306356115</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03325060645780825</v>
+        <v>0.03173126531873023</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3835406711.833007</v>
+        <v>3716105819.412627</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1554198401319526</v>
+        <v>0.1536748054021744</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0545034035123659</v>
+        <v>0.0472336370214709</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>226</v>
+      </c>
+      <c r="J10" t="n">
+        <v>247</v>
+      </c>
+      <c r="K10" t="n">
+        <v>82.83038400266067</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3161528830.744567</v>
+        <v>3260337549.289276</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1593581564441426</v>
+        <v>0.1164434151217317</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04560617138034676</v>
+        <v>0.03774962835171926</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>102</v>
+      </c>
+      <c r="J11" t="n">
+        <v>245</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3203604581.581565</v>
+        <v>2149006237.943147</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1632381551451069</v>
+        <v>0.1208364871082247</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04497584805329003</v>
+        <v>0.04390208459869122</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4143120565.216101</v>
+        <v>4400776203.075453</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0806754266954639</v>
+        <v>0.07157928207849053</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02502739021858372</v>
+        <v>0.02518663156115632</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>126</v>
+      </c>
+      <c r="J13" t="n">
+        <v>247</v>
+      </c>
+      <c r="K13" t="n">
+        <v>102.7568838997667</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3419798568.856554</v>
+        <v>3678066745.92436</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1436842502666264</v>
+        <v>0.1366084871273603</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03988974654563569</v>
+        <v>0.03787467149393237</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>48</v>
+      </c>
+      <c r="J14" t="n">
+        <v>248</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1804068613.598214</v>
+        <v>1817023567.569783</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09426881547386153</v>
+        <v>0.08540806786616569</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04242790564658739</v>
+        <v>0.04823817025617352</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1961911627.400732</v>
+        <v>2462332471.57819</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07205483249746612</v>
+        <v>0.1029338345673253</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04540321247949214</v>
+        <v>0.04739848733476978</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3327896955.211309</v>
+        <v>4540224780.719381</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1640315508524291</v>
+        <v>0.150456473938198</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04474296803471429</v>
+        <v>0.05168517152601179</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>119</v>
+      </c>
+      <c r="J17" t="n">
+        <v>248</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3420049149.745387</v>
+        <v>2899668076.914915</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1198678924152532</v>
+        <v>0.1321306933034128</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02435807973100022</v>
+        <v>0.03207294601027014</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>62</v>
+      </c>
+      <c r="J18" t="n">
+        <v>246</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1183814334.899581</v>
+        <v>1134894176.368724</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1180761906457589</v>
+        <v>0.1726895205421877</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02687256889069023</v>
+        <v>0.01790183607029918</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2539406863.309633</v>
+        <v>1960298506.761276</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1487316788349875</v>
+        <v>0.1177038103300008</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02121317537834569</v>
+        <v>0.0293474979449854</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1174,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2416797254.682682</v>
+        <v>1805476280.60962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09537292470570995</v>
+        <v>0.07067583783327602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04214430648593018</v>
+        <v>0.03598553309105784</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1203,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3523554918.751053</v>
+        <v>3425956037.926534</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1317335129912535</v>
+        <v>0.1314847290542986</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04603698616564619</v>
+        <v>0.04272350503023772</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>64</v>
+      </c>
+      <c r="J22" t="n">
+        <v>245</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1211416195.775892</v>
+        <v>1407043129.606315</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1240300859330261</v>
+        <v>0.1291945844604203</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03986402014930684</v>
+        <v>0.05130713618355256</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3539679105.650798</v>
+        <v>2511512876.141296</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1141566770989323</v>
+        <v>0.1269326066373357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02661329244009953</v>
+        <v>0.03198748499323918</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>74</v>
+      </c>
+      <c r="J24" t="n">
+        <v>246</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1401050000.017889</v>
+        <v>1359268841.364942</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09429574429229833</v>
+        <v>0.1214488068985503</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02435501024582276</v>
+        <v>0.03049294247689329</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>932839608.7849351</v>
+        <v>893563279.6636831</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1029514308917499</v>
+        <v>0.08505843462980198</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03342959468332084</v>
+        <v>0.02565947591989678</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1378,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3112774665.816579</v>
+        <v>3949311382.859118</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1029731790597429</v>
+        <v>0.1157632055384006</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01695331957537651</v>
+        <v>0.0174952645999736</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>100</v>
+      </c>
+      <c r="J27" t="n">
+        <v>248</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3328425966.87186</v>
+        <v>2753515159.149973</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09346801886309132</v>
+        <v>0.09463202552805386</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03203933060263966</v>
+        <v>0.03729449486171196</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>50</v>
+      </c>
+      <c r="J28" t="n">
+        <v>244</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4490744007.940613</v>
+        <v>5240449970.630149</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1428388719088606</v>
+        <v>0.1479890219837027</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04236592200671076</v>
+        <v>0.04213562399442573</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>236</v>
+      </c>
+      <c r="J29" t="n">
+        <v>248</v>
+      </c>
+      <c r="K29" t="n">
+        <v>111.9113802285266</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1485,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1902636924.1904</v>
+        <v>1756025270.983654</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1264284986096431</v>
+        <v>0.1060106924176334</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03556313883115339</v>
+        <v>0.02699094332053579</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1445352534.803162</v>
+        <v>1136100698.535338</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09546412609322064</v>
+        <v>0.07794438607787266</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04816937359282449</v>
+        <v>0.03903429589246429</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1448828475.117932</v>
+        <v>1149165562.633307</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09036780577547436</v>
+        <v>0.08723682231413298</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02673902809938397</v>
+        <v>0.02595959828108931</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1590,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2947294709.175441</v>
+        <v>3018255749.735783</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1848804863831245</v>
+        <v>0.153391716476763</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0521341401594842</v>
+        <v>0.04056607244351618</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1064587982.415152</v>
+        <v>1259341693.136942</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09137546548938739</v>
+        <v>0.09373413735999797</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02126763336653771</v>
+        <v>0.02576824712771943</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1045705585.618837</v>
+        <v>1120214403.949814</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09032915176510276</v>
+        <v>0.1079036511355306</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0404517751180589</v>
+        <v>0.03953692066565846</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3252383465.134922</v>
+        <v>2464931976.900535</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1303138765921091</v>
+        <v>0.148417342831654</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02465919862727725</v>
+        <v>0.02125476603672568</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2395772616.604269</v>
+        <v>2198357450.833587</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1094117681429841</v>
+        <v>0.06911719780983877</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03005827727971766</v>
+        <v>0.03153750888790465</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1353583824.038694</v>
+        <v>1640727520.440312</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0845841744182536</v>
+        <v>0.08728156060096827</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02915656852675432</v>
+        <v>0.03529018470213965</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2105937801.053177</v>
+        <v>1949747697.55937</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1559989815136159</v>
+        <v>0.1668213539706222</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02530897954588219</v>
+        <v>0.02330717341533315</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1663472396.589803</v>
+        <v>1157214792.290221</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1240143928496341</v>
+        <v>0.1578392463494711</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05352731782041337</v>
+        <v>0.05167774688647615</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2195971561.801048</v>
+        <v>2858405467.994826</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1512663554769491</v>
+        <v>0.1609967800699005</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04465664439506077</v>
+        <v>0.04401337618719808</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4189193300.068729</v>
+        <v>3318928039.345098</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1106298005480965</v>
+        <v>0.1261005585527418</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03625832730573279</v>
+        <v>0.04551847297161397</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>103</v>
+      </c>
+      <c r="J42" t="n">
+        <v>246</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1940,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2200857257.965044</v>
+        <v>2072356233.888978</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2014461236646115</v>
+        <v>0.1280758003721207</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02196590057602603</v>
+        <v>0.01857747355018034</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1918994998.391553</v>
+        <v>1847992713.435861</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0941270168149238</v>
+        <v>0.06923149251986985</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02764609504933167</v>
+        <v>0.02683491417815327</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2422897911.985093</v>
+        <v>2429473176.518335</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1640721418664136</v>
+        <v>0.1204487880989792</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05051588284692212</v>
+        <v>0.04785939981752668</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5499597791.838482</v>
+        <v>5296285834.805254</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1103360796535121</v>
+        <v>0.1659890727719011</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0447957117663884</v>
+        <v>0.04514027010943042</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>142</v>
+      </c>
+      <c r="J46" t="n">
+        <v>248</v>
+      </c>
+      <c r="K46" t="n">
+        <v>105.9031253509623</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4191238148.936764</v>
+        <v>3494433020.458418</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1634486269916219</v>
+        <v>0.1717525467466677</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03711942759214951</v>
+        <v>0.04437246882313046</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>111</v>
+      </c>
+      <c r="J47" t="n">
+        <v>248</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4617779247.683015</v>
+        <v>3214428343.279502</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07229903023446728</v>
+        <v>0.1102859427203714</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03688625472609952</v>
+        <v>0.03306642892992431</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>123</v>
+      </c>
+      <c r="J48" t="n">
+        <v>247</v>
+      </c>
+      <c r="K48" t="n">
+        <v>63.75719513105104</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1712703736.504543</v>
+        <v>1887699378.745908</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1629277876935106</v>
+        <v>0.1271797746865378</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02958915172409799</v>
+        <v>0.04192464400858579</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2189,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3459166759.147833</v>
+        <v>2638273497.905642</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1449286944985115</v>
+        <v>0.1476526028217557</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04127063913091185</v>
+        <v>0.04797462372917081</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>81</v>
+      </c>
+      <c r="J50" t="n">
+        <v>247</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.77323361790924</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1531113929.554852</v>
+        <v>1293839240.902736</v>
       </c>
       <c r="F51" t="n">
-        <v>0.152342558055983</v>
+        <v>0.1289227596278328</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04065402583439119</v>
+        <v>0.03726577448040802</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2261,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4207302488.364112</v>
+        <v>4755406768.042145</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1341901035684235</v>
+        <v>0.09804283070197443</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04091005683497327</v>
+        <v>0.04541409400085514</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>160</v>
+      </c>
+      <c r="J52" t="n">
+        <v>247</v>
+      </c>
+      <c r="K52" t="n">
+        <v>99.82636456524907</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3553686249.225291</v>
+        <v>3405060159.099258</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1888369555030873</v>
+        <v>0.142861782131889</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02379503847861963</v>
+        <v>0.03475085554714247</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4428284721.154042</v>
+        <v>3807450792.01374</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1332044246712686</v>
+        <v>0.113343643165355</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04619017226935543</v>
+        <v>0.03258397893056981</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>130</v>
+      </c>
+      <c r="J54" t="n">
+        <v>248</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4268520173.974617</v>
+        <v>3049220715.874014</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2231340848473834</v>
+        <v>0.1663080318061726</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02448546726396727</v>
+        <v>0.02288887966700864</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>111</v>
+      </c>
+      <c r="J55" t="n">
+        <v>246</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1430057786.315623</v>
+        <v>1727002159.122545</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1245869917941701</v>
+        <v>0.1256180987677882</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03934753528498386</v>
+        <v>0.04825560729321688</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3453370649.966598</v>
+        <v>3870398874.114959</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1728345444122589</v>
+        <v>0.1659232128528533</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0213726294672772</v>
+        <v>0.02713416815466844</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>98</v>
+      </c>
+      <c r="J57" t="n">
+        <v>247</v>
+      </c>
+      <c r="K57" t="n">
+        <v>88.46772793249544</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2475,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1675440067.353711</v>
+        <v>1178486781.377768</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2032254131844475</v>
+        <v>0.1449474294552899</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03181946695204162</v>
+        <v>0.0373346570046654</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4679328303.46014</v>
+        <v>4172544513.134007</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0947685914746344</v>
+        <v>0.1293025881685401</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04781310932340323</v>
+        <v>0.04384139807240816</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>120</v>
+      </c>
+      <c r="J59" t="n">
+        <v>247</v>
+      </c>
+      <c r="K59" t="n">
+        <v>92.2394157635627</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2862697173.308832</v>
+        <v>3713125340.516433</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1553774047905457</v>
+        <v>0.1502260809654256</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03081437296245076</v>
+        <v>0.03339922013763105</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>36</v>
+      </c>
+      <c r="J60" t="n">
+        <v>248</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3182365491.672986</v>
+        <v>2763943943.399978</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1288650934222943</v>
+        <v>0.1787347743008416</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0277541326346348</v>
+        <v>0.02168293220006027</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1689637022.485291</v>
+        <v>1657970258.204365</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1418643423059564</v>
+        <v>0.1194031563175842</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03459277719645509</v>
+        <v>0.03880567658595052</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3636625900.423759</v>
+        <v>3604947690.253071</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1024070522491827</v>
+        <v>0.1014581091740746</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04492760586656517</v>
+        <v>0.03443512603648752</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>121</v>
+      </c>
+      <c r="J63" t="n">
+        <v>247</v>
+      </c>
+      <c r="K63" t="n">
+        <v>71.01813682123837</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3367802261.895823</v>
+        <v>4759825026.443111</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1343338635094249</v>
+        <v>0.1910269477328274</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03480296788340193</v>
+        <v>0.02249205940947257</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>122</v>
+      </c>
+      <c r="J64" t="n">
+        <v>248</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3942210082.5991</v>
+        <v>4369556171.120037</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1319899730793132</v>
+        <v>0.1630309939476865</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03095115503725717</v>
+        <v>0.03155150308484111</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>198</v>
+      </c>
+      <c r="J65" t="n">
+        <v>248</v>
+      </c>
+      <c r="K65" t="n">
+        <v>105.188552509996</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5249220503.989058</v>
+        <v>3514001169.776215</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1424257428586949</v>
+        <v>0.1328170525099257</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04024242665046985</v>
+        <v>0.03539282877037424</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>122</v>
+      </c>
+      <c r="J66" t="n">
+        <v>248</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2306,17 +2802,24 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3445994834.391046</v>
+        <v>2670371742.447759</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07022577898216149</v>
+        <v>0.06808017345155504</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03319559657329035</v>
+        <v>0.03372277187893185</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>6</v>
+      </c>
+      <c r="J67" t="n">
+        <v>243</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,23 +2831,30 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5736915482.737123</v>
+        <v>3736917905.096435</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1219104855552199</v>
+        <v>0.14456226218948</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04633591373288207</v>
+        <v>0.03884165159932165</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
       </c>
+      <c r="I68" t="n">
+        <v>126</v>
+      </c>
+      <c r="J68" t="n">
+        <v>248</v>
+      </c>
+      <c r="K68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2491522054.047435</v>
+        <v>1661270612.768358</v>
       </c>
       <c r="F69" t="n">
-        <v>0.164437554859197</v>
+        <v>0.1565670661168267</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0397211948151934</v>
+        <v>0.05600443192543811</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2907,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2964037272.748402</v>
+        <v>2995051709.227766</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09881560351716678</v>
+        <v>0.08889581287419711</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03747406261356831</v>
+        <v>0.03702610911189225</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>39</v>
+      </c>
+      <c r="J70" t="n">
+        <v>243</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3491707439.146513</v>
+        <v>4753669470.935207</v>
       </c>
       <c r="F71" t="n">
-        <v>0.125224976285247</v>
+        <v>0.1617318144167981</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02493273081909211</v>
+        <v>0.02253139540886311</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>186</v>
+      </c>
+      <c r="J71" t="n">
+        <v>248</v>
+      </c>
+      <c r="K71" t="n">
+        <v>106.9778275671007</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2096336345.35831</v>
+        <v>2137759613.925704</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1017016578184655</v>
+        <v>0.08379376794295078</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0380972385937468</v>
+        <v>0.03419798349504262</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2311869642.438219</v>
+        <v>3526363887.772354</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08517744148405466</v>
+        <v>0.08312345157166577</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04235627170985626</v>
+        <v>0.05042844318295126</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>248</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2745505093.577768</v>
+        <v>2425872142.061744</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1318034987515993</v>
+        <v>0.1164779426292035</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03467460108974072</v>
+        <v>0.03083568543314584</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>70</v>
+      </c>
+      <c r="J74" t="n">
+        <v>241</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3084,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2415753745.973456</v>
+        <v>2331935380.123457</v>
       </c>
       <c r="F75" t="n">
-        <v>0.106270991966284</v>
+        <v>0.1161410705895684</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03150704205864974</v>
+        <v>0.03050461806094141</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3113,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3363013755.773335</v>
+        <v>4535263179.072326</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09957732368804995</v>
+        <v>0.1239724915681202</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03062617060737752</v>
+        <v>0.03376843506381916</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>115</v>
+      </c>
+      <c r="J76" t="n">
+        <v>248</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3154,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2202291405.413283</v>
+        <v>1968000958.582439</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1379879678726144</v>
+        <v>0.1673940299739178</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02033713517769855</v>
+        <v>0.02141404770229258</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3183,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4747053197.604985</v>
+        <v>4801956238.762191</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09854193422073904</v>
+        <v>0.09453643108822316</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05113793663284953</v>
+        <v>0.0569020727372079</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>123</v>
+      </c>
+      <c r="J78" t="n">
+        <v>248</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3218,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1413220596.673082</v>
+        <v>1608220070.129408</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1216668951399661</v>
+        <v>0.1190826260802949</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03330681738868401</v>
+        <v>0.03166278630829115</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3253,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4054916485.59678</v>
+        <v>5464258702.781754</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1072743169489679</v>
+        <v>0.09517066892677425</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03518512260300622</v>
+        <v>0.03138085999229136</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>121</v>
+      </c>
+      <c r="J80" t="n">
+        <v>247</v>
+      </c>
+      <c r="K80" t="n">
+        <v>75.80821532033922</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3290,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4058848803.611372</v>
+        <v>4222273180.246978</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1051749289789619</v>
+        <v>0.10631686317475</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0293248848735775</v>
+        <v>0.02624244057122363</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>114</v>
+      </c>
+      <c r="J81" t="n">
+        <v>247</v>
+      </c>
+      <c r="K81" t="n">
+        <v>89.68779790999972</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +3333,25 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3635086527.14198</v>
+        <v>4580544258.754177</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1700164813357153</v>
+        <v>0.1990283522510778</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0293360588722379</v>
+        <v>0.02143559359384646</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>188</v>
+      </c>
+      <c r="J82" t="n">
+        <v>248</v>
+      </c>
+      <c r="K82" t="n">
+        <v>103.0562386488439</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2188678921.004553</v>
+        <v>1786274553.24967</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1206752829439008</v>
+        <v>0.1359611505330323</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03483855106497848</v>
+        <v>0.03373715354172715</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2152439035.408167</v>
+        <v>2144758541.312828</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08660157562305409</v>
+        <v>0.07801141398495638</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04357442079705962</v>
+        <v>0.05242778912910048</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2539186409.289895</v>
+        <v>3602880329.335049</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1681933014932161</v>
+        <v>0.150384438341903</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05429725384985543</v>
+        <v>0.04305670989699961</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>34</v>
+      </c>
+      <c r="J85" t="n">
+        <v>248</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2297654334.857959</v>
+        <v>2172596784.293005</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1075428211962043</v>
+        <v>0.1612130285157915</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0222939586772326</v>
+        <v>0.02318895449930536</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1000928462.164624</v>
+        <v>1419413256.952048</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1842223485028615</v>
+        <v>0.1517225849957541</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04228329768833167</v>
+        <v>0.04413030890066934</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3545,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2773579482.660063</v>
+        <v>2413745810.740574</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1692363553417941</v>
+        <v>0.1438378128220089</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03994613270628252</v>
+        <v>0.03084754799479637</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>36</v>
+      </c>
+      <c r="J88" t="n">
+        <v>247</v>
+      </c>
+      <c r="K88" t="n">
+        <v>35.96945999664176</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2632317060.921374</v>
+        <v>3493187302.357271</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1374752811630976</v>
+        <v>0.134815147032506</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03752821695385909</v>
+        <v>0.02925479581761804</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>18</v>
+      </c>
+      <c r="J89" t="n">
+        <v>248</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1795290693.940496</v>
+        <v>2006060037.128039</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1322422553626932</v>
+        <v>0.0995803137439313</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0548755083225299</v>
+        <v>0.04575317397478465</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1740013891.475505</v>
+        <v>2009321312.374952</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1916987761091457</v>
+        <v>0.1860310367769798</v>
       </c>
       <c r="G91" t="n">
-        <v>0.051926859631422</v>
+        <v>0.03812798323408503</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2688964035.634931</v>
+        <v>2280419744.144267</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07845351074622418</v>
+        <v>0.1030446664311054</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04255966609947971</v>
+        <v>0.03246512510262132</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3716,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3618359675.943569</v>
+        <v>3406059123.872869</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09624463800367201</v>
+        <v>0.141742670971992</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0505464750850179</v>
+        <v>0.04896707408135278</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>110</v>
+      </c>
+      <c r="J93" t="n">
+        <v>246</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3757,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1654571842.508503</v>
+        <v>2465168621.478099</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1054036683229208</v>
+        <v>0.1571616020676807</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03044223061220709</v>
+        <v>0.03706927832563708</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3786,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2413483388.12321</v>
+        <v>2277118514.988539</v>
       </c>
       <c r="F95" t="n">
-        <v>0.118230426448695</v>
+        <v>0.1170947868992844</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04798978706965262</v>
+        <v>0.05239970474691454</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1499548549.545571</v>
+        <v>2142862341.900545</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09670748853099355</v>
+        <v>0.1296694717651855</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04531642622854806</v>
+        <v>0.04569545735576989</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3856,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3989346490.828907</v>
+        <v>4904332444.217141</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1079916481455418</v>
+        <v>0.1422387295796141</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02629201534207684</v>
+        <v>0.01920557739228818</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>121</v>
+      </c>
+      <c r="J97" t="n">
+        <v>247</v>
+      </c>
+      <c r="K97" t="n">
+        <v>102.7721974474528</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3827143145.971936</v>
+        <v>3023358073.077582</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09746978041631485</v>
+        <v>0.09687447969931168</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02298644168159077</v>
+        <v>0.02274027636554576</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>61</v>
+      </c>
+      <c r="J98" t="n">
+        <v>247</v>
+      </c>
+      <c r="K98" t="n">
+        <v>49.68322735694378</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3360222013.249494</v>
+        <v>2519786281.463782</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1173653210197177</v>
+        <v>0.116859312518487</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02331631293663684</v>
+        <v>0.02728275193034034</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3038787983.208495</v>
+        <v>3689312696.165067</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1602369785548292</v>
+        <v>0.1785650548328067</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0273947423541121</v>
+        <v>0.017482885233355</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>103</v>
+      </c>
+      <c r="J100" t="n">
+        <v>248</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2465933262.979938</v>
+        <v>2219386974.738621</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1387914618062474</v>
+        <v>0.190178431367263</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04798884085540091</v>
+        <v>0.05222442598236375</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
